--- a/ieasyreports/templates/template_5day_forecast.xlsx
+++ b/ieasyreports/templates/template_5day_forecast.xlsx
@@ -470,7 +470,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DATA.Q_MIN</t>
+      <t xml:space="preserve">Q_MIN</t>
     </r>
     <r>
       <rPr>
@@ -505,7 +505,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DATA.Q_MAX</t>
+      <t xml:space="preserve">Q_MAX</t>
     </r>
     <r>
       <rPr>
@@ -537,7 +537,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DATA.NORM</t>
+      <t xml:space="preserve">NORM</t>
     </r>
     <r>
       <rPr>
@@ -569,7 +569,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DATA.PERC_NORM</t>
+      <t xml:space="preserve">PERC_NORM</t>
     </r>
     <r>
       <rPr>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DATA.QDANGER</t>
+      <t xml:space="preserve">QDANGER</t>
     </r>
     <r>
       <rPr>
@@ -948,10 +948,10 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
